--- a/data-raw/metadata_generated_by_flowwest/releases-fish-metadata.xlsx
+++ b/data-raw/metadata_generated_by_flowwest/releases-fish-metadata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/EDI_data_repos_to_upload/rbdd-rst-edi/data-raw/metadata_generated_by_flowwest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE2567B-5FE3-994D-8C78-F420A38F6351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59A93B-ED31-9447-8D97-9E43CF90C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22060" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="620" yWindow="-18040" windowWidth="22060" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attribute" sheetId="9" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -76,9 +76,6 @@
     <t>attribute_name</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
     <t>mark_row_id</t>
   </si>
   <si>
@@ -98,6 +95,54 @@
   </si>
   <si>
     <t>dead</t>
+  </si>
+  <si>
+    <t>nominal</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mortality status of fish </t>
+  </si>
+  <si>
+    <t>station_code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Station code indicating where trap was located, corresponds to one of the rbdd gates </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of fish </t>
+  </si>
+  <si>
+    <t>ratio</t>
+  </si>
+  <si>
+    <t>numeric</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>millimeter</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">origin of fish used in mark recap - wild or hatchery </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fork length of fish used in mark recap </t>
+  </si>
+  <si>
+    <t>source of fish, rbdd or hatchery, mix</t>
+  </si>
+  <si>
+    <t>unique identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique identifier to join with release overview table </t>
   </si>
 </sst>
 </file>
@@ -554,7 +599,7 @@
   <dimension ref="A1:AMG16385"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,47 +660,149 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="2"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0</v>
+      </c>
+      <c r="M7" s="5">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="85" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">

--- a/data-raw/metadata_generated_by_flowwest/releases-fish-metadata.xlsx
+++ b/data-raw/metadata_generated_by_flowwest/releases-fish-metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erincain/Documents/Git/CVPIA/data-stewardship/EDI_data_repos_to_upload/rbdd-rst-edi/data-raw/metadata_generated_by_flowwest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC59A93B-ED31-9447-8D97-9E43CF90C0E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D48D694-8C56-7A4C-B0EA-00F6D6D46FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="620" yWindow="-18040" windowWidth="22060" windowHeight="16360" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t xml:space="preserve">attribute_name </t>
   </si>
@@ -104,12 +104,6 @@
   </si>
   <si>
     <t xml:space="preserve">Mortality status of fish </t>
-  </si>
-  <si>
-    <t>station_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Station code indicating where trap was located, corresponds to one of the rbdd gates </t>
   </si>
   <si>
     <t xml:space="preserve">number of fish </t>
@@ -596,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AMG16385"/>
+  <dimension ref="A1:AMG16384"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="19.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +659,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -682,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -696,7 +690,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -710,7 +704,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -724,22 +718,22 @@
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L6" s="5">
         <v>0</v>
@@ -753,22 +747,22 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L7" s="5">
         <v>0</v>
@@ -791,23 +785,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="85" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10"/>
-      <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11"/>
@@ -49931,20 +49914,17 @@
     <row r="16384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16384"/>
     </row>
-    <row r="16385" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16385"/>
-    </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1021" xr:uid="{00000000-0002-0000-0800-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1020" xr:uid="{00000000-0002-0000-0800-000000000000}">
       <formula1>"nominal,ordinal,interval,ratio,dateTime"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1021" xr:uid="{00000000-0002-0000-0800-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1020" xr:uid="{00000000-0002-0000-0800-000001000000}">
       <formula1>"text,enumerated,dateTime,numeric"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1021" xr:uid="{00000000-0002-0000-0800-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1020" xr:uid="{00000000-0002-0000-0800-000003000000}">
       <formula1>"ratio,interval"</formula1>
       <formula2>0</formula2>
     </dataValidation>
